--- a/lowe/edd/data/ALPINHWS.xlsx
+++ b/lowe/edd/data/ALPINHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,14 +1223,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH33"/>
+  <dimension ref="A1:JI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1240,12 +1240,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,14 +1255,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1270,12 +1270,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2090,11 +2090,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2897,8 +2900,11 @@
       <c r="JH9" s="11">
         <v>480</v>
       </c>
+      <c r="JI9" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3701,8 +3707,11 @@
       <c r="JH10" s="11">
         <v>440</v>
       </c>
+      <c r="JI10" s="11">
+        <v>440</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4505,8 +4514,11 @@
       <c r="JH11" s="11">
         <v>40</v>
       </c>
+      <c r="JI11" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5307,10 +5319,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>8.8999999999999996E-2</v>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6113,8 +6128,11 @@
       <c r="JH13" s="11">
         <v>630</v>
       </c>
+      <c r="JI13" s="11">
+        <v>620</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6917,8 +6935,11 @@
       <c r="JH14" s="11">
         <v>0</v>
       </c>
+      <c r="JI14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7721,8 +7742,11 @@
       <c r="JH15" s="11">
         <v>630</v>
       </c>
+      <c r="JI15" s="11">
+        <v>620</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8525,8 +8549,11 @@
       <c r="JH16" s="11">
         <v>360</v>
       </c>
+      <c r="JI16" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9149,8 +9176,11 @@
       <c r="JH17" s="11">
         <v>20</v>
       </c>
+      <c r="JI17" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -9953,8 +9983,11 @@
       <c r="JH18" s="11">
         <v>620</v>
       </c>
+      <c r="JI18" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -10757,8 +10790,11 @@
       <c r="JH19" s="11">
         <v>350</v>
       </c>
+      <c r="JI19" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11561,8 +11597,11 @@
       <c r="JH20" s="11">
         <v>270</v>
       </c>
+      <c r="JI20" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12365,8 +12404,11 @@
       <c r="JH21" s="11">
         <v>0</v>
       </c>
+      <c r="JI21" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13169,8 +13211,11 @@
       <c r="JH22" s="11">
         <v>270</v>
       </c>
+      <c r="JI22" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -13973,8 +14018,11 @@
       <c r="JH23" s="11">
         <v>40</v>
       </c>
+      <c r="JI23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -14777,8 +14825,11 @@
       <c r="JH24" s="11">
         <v>220</v>
       </c>
+      <c r="JI24" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -14791,7 +14842,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -14804,7 +14855,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
@@ -14817,7 +14868,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
@@ -14830,7 +14881,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>63</v>
       </c>
@@ -14843,7 +14894,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>64</v>
       </c>
@@ -14856,7 +14907,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>65</v>
       </c>

--- a/lowe/edd/data/ALPINHWS.xlsx
+++ b/lowe/edd/data/ALPINHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI33"/>
+  <dimension ref="A1:JJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,12 +1240,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,14 +1255,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1270,12 +1270,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2093,11 +2093,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2903,8 +2906,11 @@
       <c r="JI9" s="11">
         <v>480</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>470</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3710,8 +3716,11 @@
       <c r="JI10" s="11">
         <v>440</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>430</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4517,8 +4526,11 @@
       <c r="JI11" s="11">
         <v>40</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5322,10 +5334,13 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>0.08</v>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6131,8 +6146,11 @@
       <c r="JI13" s="11">
         <v>620</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6938,8 +6956,11 @@
       <c r="JI14" s="11">
         <v>0</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7745,8 +7766,11 @@
       <c r="JI15" s="11">
         <v>620</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8552,8 +8576,11 @@
       <c r="JI16" s="11">
         <v>350</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>340</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9179,8 +9206,11 @@
       <c r="JI17" s="11">
         <v>20</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -9986,8 +10016,11 @@
       <c r="JI18" s="11">
         <v>600</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>580</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -10793,8 +10826,11 @@
       <c r="JI19" s="11">
         <v>330</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11600,8 +11636,11 @@
       <c r="JI20" s="11">
         <v>270</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12407,8 +12446,11 @@
       <c r="JI21" s="11">
         <v>0</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13214,8 +13256,11 @@
       <c r="JI22" s="11">
         <v>270</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14021,8 +14066,11 @@
       <c r="JI23" s="11">
         <v>40</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -14828,8 +14876,11 @@
       <c r="JI24" s="11">
         <v>230</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -14842,7 +14893,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -14855,7 +14906,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
@@ -14868,7 +14919,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
@@ -14881,7 +14932,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>63</v>
       </c>
@@ -14894,7 +14945,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>64</v>
       </c>
@@ -14907,7 +14958,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>65</v>
       </c>

--- a/lowe/edd/data/ALPINHWS.xlsx
+++ b/lowe/edd/data/ALPINHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ33"/>
+  <dimension ref="A1:JL33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,12 +1240,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,14 +1255,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1270,12 +1270,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2096,11 +2096,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2909,8 +2915,14 @@
       <c r="JJ9" s="11">
         <v>470</v>
       </c>
+      <c r="JK9" s="11">
+        <v>490</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>570</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3719,8 +3731,14 @@
       <c r="JJ10" s="11">
         <v>430</v>
       </c>
+      <c r="JK10" s="11">
+        <v>460</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>530</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4529,8 +4547,14 @@
       <c r="JJ11" s="11">
         <v>40</v>
       </c>
+      <c r="JK11" s="11">
+        <v>30</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5337,10 +5361,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>7.6999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6149,8 +6179,14 @@
       <c r="JJ13" s="11">
         <v>600</v>
       </c>
+      <c r="JK13" s="11">
+        <v>680</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>860</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6959,8 +6995,14 @@
       <c r="JJ14" s="11">
         <v>0</v>
       </c>
+      <c r="JK14" s="11">
+        <v>0</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7769,8 +7811,14 @@
       <c r="JJ15" s="11">
         <v>600</v>
       </c>
+      <c r="JK15" s="11">
+        <v>680</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>860</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8579,8 +8627,14 @@
       <c r="JJ16" s="11">
         <v>340</v>
       </c>
+      <c r="JK16" s="11">
+        <v>420</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>610</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9209,8 +9263,14 @@
       <c r="JJ17" s="11">
         <v>20</v>
       </c>
+      <c r="JK17" s="11">
+        <v>10</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10019,8 +10079,14 @@
       <c r="JJ18" s="11">
         <v>580</v>
       </c>
+      <c r="JK18" s="11">
+        <v>660</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>850</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -10829,8 +10895,14 @@
       <c r="JJ19" s="11">
         <v>330</v>
       </c>
+      <c r="JK19" s="11">
+        <v>410</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11639,8 +11711,14 @@
       <c r="JJ20" s="11">
         <v>260</v>
       </c>
+      <c r="JK20" s="11">
+        <v>250</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12449,8 +12527,14 @@
       <c r="JJ21" s="11">
         <v>0</v>
       </c>
+      <c r="JK21" s="11">
+        <v>0</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13259,8 +13343,14 @@
       <c r="JJ22" s="11">
         <v>260</v>
       </c>
+      <c r="JK22" s="11">
+        <v>250</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14069,8 +14159,14 @@
       <c r="JJ23" s="11">
         <v>40</v>
       </c>
+      <c r="JK23" s="11">
+        <v>40</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -14879,8 +14975,14 @@
       <c r="JJ24" s="11">
         <v>210</v>
       </c>
+      <c r="JK24" s="11">
+        <v>210</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>210</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -14893,7 +14995,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -14906,7 +15008,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
@@ -14919,7 +15021,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
@@ -14932,7 +15034,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>63</v>
       </c>
@@ -14945,7 +15047,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>64</v>
       </c>
@@ -14958,7 +15060,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>65</v>
       </c>
